--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200323.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200323.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\ok\20200323\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shaanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E159C-36EE-4354-831E-DBF6CDE0E83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88563CF7-1754-440D-97D0-2600E1F4494C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8680" yWindow="1000" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10964,47 +10964,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.61328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.84375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.84375" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="13"/>
+    <col min="40" max="40" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:40" s="18" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -12056,103 +12056,103 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="24.75">
+    <row r="20" spans="1:29" ht="25">
       <c r="U20" s="21"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="1:29" ht="24.75">
+    <row r="21" spans="1:29" ht="25">
       <c r="U21" s="21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="1:29" ht="24.75">
+    <row r="22" spans="1:29" ht="25">
       <c r="U22" s="21"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:29" ht="24.75">
+    <row r="23" spans="1:29" ht="25">
       <c r="U23" s="21"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:29" ht="24.75">
+    <row r="24" spans="1:29" ht="25">
       <c r="U24" s="21"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:29" ht="24.75">
+    <row r="25" spans="1:29" ht="25">
       <c r="U25" s="21"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:29" ht="24.75">
+    <row r="26" spans="1:29" ht="25">
       <c r="U26" s="21"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:29" ht="24.75">
+    <row r="27" spans="1:29" ht="25">
       <c r="U27" s="21"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:29" ht="24.75">
+    <row r="28" spans="1:29" ht="25">
       <c r="U28" s="21"/>
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:29" ht="24.75">
+    <row r="29" spans="1:29" ht="25">
       <c r="U29" s="21"/>
       <c r="V29"/>
     </row>
-    <row r="30" spans="1:29" ht="24.75">
+    <row r="30" spans="1:29" ht="25">
       <c r="U30" s="21"/>
       <c r="V30"/>
     </row>
-    <row r="31" spans="1:29" ht="24.75">
+    <row r="31" spans="1:29" ht="25">
       <c r="U31" s="21"/>
       <c r="V31"/>
     </row>
-    <row r="32" spans="1:29" ht="24.75">
+    <row r="32" spans="1:29" ht="25">
       <c r="U32" s="21"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="21:22" ht="24.75">
+    <row r="33" spans="21:22" ht="25">
       <c r="U33" s="21"/>
       <c r="V33"/>
     </row>
-    <row r="34" spans="21:22" ht="24.75">
+    <row r="34" spans="21:22" ht="25">
       <c r="U34" s="21"/>
       <c r="V34"/>
     </row>
-    <row r="35" spans="21:22" ht="24.75">
+    <row r="35" spans="21:22" ht="25">
       <c r="U35" s="21"/>
       <c r="V35"/>
     </row>
-    <row r="36" spans="21:22" ht="24.75">
+    <row r="36" spans="21:22" ht="25">
       <c r="U36" s="21"/>
       <c r="V36"/>
     </row>
-    <row r="37" spans="21:22" ht="24.75">
+    <row r="37" spans="21:22" ht="25">
       <c r="U37" s="21"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="21:22" ht="24.75">
+    <row r="38" spans="21:22" ht="25">
       <c r="U38" s="21"/>
       <c r="V38"/>
     </row>
-    <row r="39" spans="21:22" ht="24.75">
+    <row r="39" spans="21:22" ht="25">
       <c r="U39" s="21"/>
       <c r="V39"/>
     </row>
-    <row r="40" spans="21:22" ht="24.75">
+    <row r="40" spans="21:22" ht="25">
       <c r="U40" s="21"/>
       <c r="V40"/>
     </row>
-    <row r="41" spans="21:22" ht="24.75">
+    <row r="41" spans="21:22" ht="25">
       <c r="U41" s="21"/>
       <c r="V41"/>
     </row>
-    <row r="42" spans="21:22" ht="24.75">
+    <row r="42" spans="21:22" ht="25">
       <c r="U42" s="21"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="21:22" ht="24.75">
+    <row r="43" spans="21:22" ht="25">
       <c r="U43" s="21"/>
       <c r="V43"/>
     </row>
-    <row r="44" spans="21:22" ht="24.75">
+    <row r="44" spans="21:22" ht="25">
       <c r="U44" s="21"/>
       <c r="V44"/>
     </row>
@@ -12215,10 +12215,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200323.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200323.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shaanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88563CF7-1754-440D-97D0-2600E1F4494C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D275C-0362-4DA1-811E-89E3E2B33CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8680" yWindow="1000" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10964,7 +10964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -10978,7 +10978,9 @@
     <col min="6" max="6" width="9.3046875" style="13" customWidth="1"/>
     <col min="7" max="7" width="13.84375" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.921875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.3046875" style="13" customWidth="1"/>
+    <col min="11" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31.84375" style="15" bestFit="1" customWidth="1"/>
